--- a/data_tables/tip/Tip.xlsx
+++ b/data_tables/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="17030" windowHeight="13370"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">    LoginFsmInvalidEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginTimeout</t>
   </si>
   <si>
     <t>//scene_error</t>
@@ -1564,10 +1567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1955,50 +1958,50 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:1">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:2">
+    <row r="71" ht="20" customHeight="1" spans="1:1">
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:2">
+      <c r="A72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="20" customHeight="1" spans="1:1">
       <c r="A73" t="s">
         <v>93</v>
       </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
         <v>95</v>
-      </c>
-      <c r="B74" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
         <v>97</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2312,143 +2315,148 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>162</v>
       </c>
-      <c r="B139" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" t="s">
         <v>166</v>
-      </c>
-      <c r="B141" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" t="s">
         <v>168</v>
-      </c>
-      <c r="B142" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" t="s">
         <v>170</v>
-      </c>
-      <c r="B143" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" t="s">
         <v>172</v>
-      </c>
-      <c r="B144" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" t="s">
         <v>174</v>
       </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>177</v>
       </c>
-      <c r="B147" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" t="s">
         <v>179</v>
       </c>
-      <c r="B148" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>182</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>185</v>
       </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>188</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>191</v>
       </c>
-      <c r="B156" t="s">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data_tables/tip/Tip.xlsx
+++ b/data_tables/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17030" windowHeight="13370"/>
+    <workbookView windowWidth="15480" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
     <t>参数无效</t>
   </si>
   <si>
-    <t xml:space="preserve">    ServerCrashed</t>
-  </si>
-  <si>
-    <t>服务器已经崩溃</t>
+    <t xml:space="preserve">    FeatureUnavailable</t>
+  </si>
+  <si>
+    <t>该功能当前不可用</t>
   </si>
   <si>
     <t xml:space="preserve">   IndexOutOfRange</t>
@@ -320,10 +320,10 @@
     <t>主场景已经满了</t>
   </si>
   <si>
-    <t xml:space="preserve">    EnterGameNodeCrash</t>
-  </si>
-  <si>
-    <t>进入的游戏节点已经满了</t>
+    <t xml:space="preserve">    EnterNodeUnavailable</t>
+  </si>
+  <si>
+    <t>进入的游戏节点已不可用了</t>
   </si>
   <si>
     <t xml:space="preserve">    EnterSceneServerType</t>
@@ -1317,7 +1317,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1569,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1865,12 +1865,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -1883,87 +1883,87 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="1:1">
+    <row r="58" ht="20" customHeight="1" spans="1:2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="1:1">
+    <row r="59" ht="20" customHeight="1" spans="1:2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="1:1">
+    <row r="60" ht="20" customHeight="1" spans="1:2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="1:1">
+    <row r="61" ht="20" customHeight="1" spans="1:2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="1:1">
+    <row r="62" ht="20" customHeight="1" spans="1:2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:1">
+    <row r="71" ht="20" customHeight="1" spans="1:2">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" ht="20" customHeight="1" spans="1:1">
+    <row r="73" ht="20" customHeight="1" spans="1:2">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -2005,22 +2005,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -2265,57 +2265,57 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>162</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>177</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>182</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>185</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>188</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>191</v>
       </c>
@@ -2449,12 +2449,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>195</v>
       </c>
